--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3749996.635268784</v>
+        <v>3753402.126393234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.09535993</v>
+        <v>6663746.095359931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095102</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174317</v>
+        <v>72.50477145174297</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.584056443998565</v>
+        <v>7.584056444002617</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
@@ -758,7 +758,7 @@
         <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356725</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>74.44607742532895</v>
       </c>
       <c r="T3" t="n">
-        <v>148.3652049806794</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731841</v>
+        <v>39.90169565731829</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.1110653833171</v>
+        <v>155.1110653833184</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>198.3806752841664</v>
+        <v>198.380675284166</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.85099796338696</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>105.3839936249375</v>
+        <v>105.383993624937</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>281.5496867510636</v>
+        <v>281.5496867510634</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589006</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1779507752268819</v>
+        <v>0.1779507752280074</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>119.9055691882077</v>
+        <v>119.9055691882086</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722604</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873202</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -1897,13 +1897,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589019</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>60.08798327243861</v>
+        <v>60.08798327243951</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534548</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174159</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>190.7694532902387</v>
+        <v>190.769453290239</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4318,7 +4318,7 @@
         <v>233.1089316612285</v>
       </c>
       <c r="F2" t="n">
-        <v>226.1634309120251</v>
+        <v>226.163430912025</v>
       </c>
       <c r="G2" t="n">
         <v>211.9501583307498</v>
@@ -4327,37 +4327,37 @@
         <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060712</v>
+        <v>397.076446806072</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927195</v>
+        <v>769.564092592721</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689013</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811684</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633673</v>
+        <v>1978.679112633677</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054137</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804441</v>
+        <v>2292.214167804445</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804441</v>
+        <v>2292.214167804445</v>
       </c>
       <c r="T2" t="n">
         <v>2284.553504729695</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.4743415614556</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>747.0213122803286</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>598.0869026190774</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>438.8494476136218</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>292.3148896405068</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>154.2496832556012</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369979</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422598</v>
+        <v>130.1591986422614</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852925</v>
+        <v>501.7702691852946</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874814</v>
+        <v>987.4020823874839</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.59413803003</v>
+        <v>1501.594138030033</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119902</v>
+        <v>1905.563735119905</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.78188369591</v>
+        <v>2212.781883695914</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885991</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926782</v>
+        <v>2290.253252679611</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.690942511955</v>
+        <v>2290.253252679611</v>
       </c>
       <c r="U3" t="n">
-        <v>1994.690942511955</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1759.538834280212</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1505.30147755201</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1297.449977346477</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1089.689678581524</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181603</v>
+        <v>88.80529410181629</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365668</v>
       </c>
       <c r="M4" t="n">
-        <v>322.35411989506</v>
+        <v>322.3541198950606</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.7398382896753</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885933</v>
+        <v>551.3848716885943</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.5343321664189</v>
+        <v>574.5343321664203</v>
       </c>
       <c r="R4" t="n">
-        <v>420.5412750319076</v>
+        <v>420.541275031909</v>
       </c>
       <c r="S4" t="n">
-        <v>203.9868700352322</v>
+        <v>203.9868700352337</v>
       </c>
       <c r="T4" t="n">
-        <v>203.9868700352322</v>
+        <v>203.9868700352337</v>
       </c>
       <c r="U4" t="n">
-        <v>203.9868700352322</v>
+        <v>203.9868700352337</v>
       </c>
       <c r="V4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="W4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="X4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
     </row>
     <row r="5">
@@ -4546,16 +4546,16 @@
         <v>1546.007598651101</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.04508171069</v>
+        <v>1177.045081710689</v>
       </c>
       <c r="D5" t="n">
-        <v>818.7793831039394</v>
+        <v>818.7793831039389</v>
       </c>
       <c r="E5" t="n">
-        <v>818.7793831039394</v>
+        <v>818.7793831039389</v>
       </c>
       <c r="F5" t="n">
-        <v>407.7934783143318</v>
+        <v>407.7934783143314</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,10 +4594,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
         <v>2267.209817970484</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,22 +4673,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4707,70 +4707,70 @@
         <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4913,22 +4913,22 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4953,52 +4953,52 @@
         <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
         <v>443.7353612255621</v>
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427191</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M11" t="n">
-        <v>2782.232616025902</v>
+        <v>2782.232616025904</v>
       </c>
       <c r="N11" t="n">
-        <v>3329.011433084685</v>
+        <v>3329.011433084686</v>
       </c>
       <c r="O11" t="n">
-        <v>3831.983903964021</v>
+        <v>3831.983903964023</v>
       </c>
       <c r="P11" t="n">
-        <v>4226.758270321199</v>
+        <v>4226.758270321201</v>
       </c>
       <c r="Q11" t="n">
-        <v>4685.236472830187</v>
+        <v>4685.236472830189</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5132,16 +5132,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5196,31 +5196,31 @@
         <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
         <v>1956.163717846898</v>
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.153662641309</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3515.905934867956</v>
+        <v>3515.905934867957</v>
       </c>
       <c r="O14" t="n">
-        <v>4018.878405747293</v>
+        <v>4018.878405747294</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5381,28 +5381,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533.5270475124396</v>
+        <v>533.5270475124405</v>
       </c>
       <c r="C16" t="n">
-        <v>364.5908645845327</v>
+        <v>364.5908645845336</v>
       </c>
       <c r="D16" t="n">
-        <v>364.5908645845327</v>
+        <v>364.5908645845336</v>
       </c>
       <c r="E16" t="n">
-        <v>216.6777710021396</v>
+        <v>216.6777710021405</v>
       </c>
       <c r="F16" t="n">
-        <v>216.6777710021396</v>
+        <v>216.6777710021405</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X16" t="n">
-        <v>935.9680914862095</v>
+        <v>935.9680914862104</v>
       </c>
       <c r="Y16" t="n">
-        <v>715.1755123426793</v>
+        <v>715.1755123426802</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001581</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074197</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.259539097266</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
         <v>1069.293752345675</v>
@@ -5527,40 +5527,40 @@
         <v>2047.844055175503</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330834</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660288</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107234</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862916</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419718</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946813</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142067</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282341</v>
@@ -5664,16 +5664,16 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6089,31 +6089,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6454,10 +6454,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6563,31 +6563,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6800,31 +6800,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6916,61 +6916,61 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1741.136558882385</v>
+        <v>1741.136558882383</v>
       </c>
       <c r="M35" t="n">
-        <v>2274.668463554309</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.420735780955</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660292</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7028,16 +7028,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>747.3928343215987</v>
+        <v>747.3928343215996</v>
       </c>
       <c r="C37" t="n">
         <v>686.6979017231758</v>
@@ -7089,16 +7089,16 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,22 +7110,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
         <v>1667.240599230347</v>
@@ -7134,13 +7134,13 @@
         <v>1667.240599230347</v>
       </c>
       <c r="W37" t="n">
-        <v>1377.823429193386</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X37" t="n">
         <v>1149.833878295369</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.0412991518384</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,7 +7171,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7180,46 +7180,46 @@
         <v>939.1634975427193</v>
       </c>
       <c r="L38" t="n">
-        <v>1530.944718129079</v>
+        <v>1530.944718129078</v>
       </c>
       <c r="M38" t="n">
-        <v>2064.476622801003</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027649</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906986</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353932</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390117</v>
@@ -7326,10 +7326,10 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7390,28 +7390,28 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839448</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
         <v>1106.569146563072</v>
@@ -7426,28 +7426,28 @@
         <v>3484.372139114997</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750062</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107239</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862922</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419724</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946819</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331041</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604878</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261307</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.42128699119</v>
@@ -7484,19 +7484,19 @@
         <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839448</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>873.2202818640282</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C43" t="n">
-        <v>704.2840989361213</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361213</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>556.3710053537282</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558178</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305367</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839448</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839448</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262989</v>
+        <v>64.58008902262972</v>
       </c>
       <c r="K3" t="n">
-        <v>115.1204337631321</v>
+        <v>115.1204337631334</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>327.4218609627881</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>34.13957882093979</v>
+        <v>34.13957882093968</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>57.67224444723763</v>
+        <v>57.6722444472374</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>285.6623071682308</v>
+        <v>285.662307168233</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>354.4836849406634</v>
+        <v>354.4836849406612</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>142.1686942807585</v>
+        <v>142.1686942807576</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>89.52456338962361</v>
+        <v>89.52456338962088</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.75420189482047</v>
+        <v>88.7542018948193</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>46.1202390708205</v>
+        <v>46.12023907081961</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>107.1588378261892</v>
+        <v>107.1588378261883</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>61.36819003358926</v>
+        <v>61.36819003358903</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
-      </c>
       <c r="E2" t="n">
-        <v>754455.3950852676</v>
+        <v>754455.3950852675</v>
       </c>
       <c r="F2" t="n">
         <v>754455.3950852675</v>
       </c>
       <c r="G2" t="n">
-        <v>754455.3950852675</v>
+        <v>754455.3950852677</v>
       </c>
       <c r="H2" t="n">
         <v>754455.3950852675</v>
       </c>
       <c r="I2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.3950852676</v>
       </c>
       <c r="J2" t="n">
         <v>754455.3950852674</v>
       </c>
       <c r="K2" t="n">
+        <v>754455.3950852677</v>
+      </c>
+      <c r="L2" t="n">
+        <v>754455.3950852675</v>
+      </c>
+      <c r="M2" t="n">
         <v>754455.3950852678</v>
-      </c>
-      <c r="L2" t="n">
-        <v>754455.3950852677</v>
-      </c>
-      <c r="M2" t="n">
-        <v>754455.3950852675</v>
       </c>
       <c r="N2" t="n">
         <v>754455.3950852676</v>
@@ -26355,7 +26355,7 @@
         <v>754455.3950852675</v>
       </c>
       <c r="P2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852681</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106488</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446942</v>
+        <v>91792.63957446822</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84042391992989e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832161</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220087</v>
+        <v>21342.09858220058</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.954765981</v>
+        <v>226943.9547659807</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749939</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499388</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499384</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499384</v>
       </c>
       <c r="K4" t="n">
+        <v>25090.72367499385</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25090.72367499385</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25090.72367499385</v>
+      </c>
+      <c r="O4" t="n">
         <v>25090.72367499384</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>25090.72367499384</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25090.72367499386</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25090.72367499376</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25090.72367499385</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140122</v>
+        <v>76261.10613140129</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.5182537137</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16607.06393696064</v>
+        <v>-16607.06393696126</v>
       </c>
       <c r="C6" t="n">
-        <v>404273.4578054585</v>
+        <v>404273.4578054596</v>
       </c>
       <c r="D6" t="n">
-        <v>496066.097379928</v>
+        <v>496066.0973799279</v>
       </c>
       <c r="E6" t="n">
-        <v>-95068.21573910433</v>
+        <v>-94463.45632707255</v>
       </c>
       <c r="F6" t="n">
-        <v>632309.1982543021</v>
+        <v>632913.9576663347</v>
       </c>
       <c r="G6" t="n">
-        <v>632309.1982543023</v>
+        <v>632913.9576663347</v>
       </c>
       <c r="H6" t="n">
-        <v>632309.1982543019</v>
+        <v>632913.9576663342</v>
       </c>
       <c r="I6" t="n">
-        <v>632309.1982543025</v>
+        <v>632913.9576663343</v>
       </c>
       <c r="J6" t="n">
-        <v>477582.6625710861</v>
+        <v>478187.4219831179</v>
       </c>
       <c r="K6" t="n">
-        <v>610967.0996721017</v>
+        <v>611571.8590841339</v>
       </c>
       <c r="L6" t="n">
-        <v>632309.1982543024</v>
+        <v>632913.9576663342</v>
       </c>
       <c r="M6" t="n">
-        <v>502666.8834153572</v>
+        <v>503271.6428273897</v>
       </c>
       <c r="N6" t="n">
-        <v>632309.1982543023</v>
+        <v>632913.9576663343</v>
       </c>
       <c r="O6" t="n">
-        <v>632309.1982543021</v>
+        <v>632913.9576663342</v>
       </c>
       <c r="P6" t="n">
-        <v>632309.1982543026</v>
+        <v>632913.9576663348</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435503</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26828,7 +26828,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435503</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353718</v>
+        <v>71.38374637353627</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330709</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.225657850375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330709</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330709</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>210.1204743649161</v>
+        <v>210.1204743649121</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100823</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>84.9971479042878</v>
       </c>
       <c r="T3" t="n">
-        <v>49.14344103019673</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848779</v>
+        <v>54.30080173848769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>97.02657794051089</v>
+        <v>97.02657794050955</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>215.4034947366286</v>
+        <v>215.403494736629</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9809822185503</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>69.03171918403403</v>
+        <v>69.03171918403451</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>4.973311585527426</v>
+        <v>4.973311585527597</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.350276212680659e-12</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.06329801181952e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.06329801181952e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-6.06329801181952e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.414636683656337e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,19 +28614,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-9.972885038888031e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672563</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212164</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452641</v>
+        <v>47.48116877452654</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676343</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015739</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787777</v>
+        <v>194.3553476787782</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589796</v>
+        <v>216.2577725589801</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095248</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811557</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579893</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.9986917709656</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940651</v>
+        <v>77.36434648940671</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978849</v>
+        <v>28.06503166978856</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216634</v>
+        <v>5.391318755216647</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380478</v>
+        <v>0.09852781277380503</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540499</v>
+        <v>0.6589628421540517</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014131</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784778</v>
+        <v>22.68797504784783</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440368</v>
+        <v>62.25753764403697</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.4080480683584</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966506</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247345</v>
+        <v>166.9661552247349</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302329</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382931</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.833000972382</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338364</v>
+        <v>84.11602876338387</v>
       </c>
       <c r="R3" t="n">
-        <v>40.9134999716348</v>
+        <v>40.91349997163491</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422108</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394549</v>
+        <v>2.656082683945497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276646</v>
+        <v>0.04335281856276657</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654171</v>
+        <v>0.5524523108654186</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967076</v>
+        <v>4.911803272967088</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584368</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818509</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509117</v>
+        <v>64.18491393509134</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448211</v>
+        <v>82.13459174448232</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502169</v>
+        <v>86.59941087502192</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361429</v>
+        <v>84.54027044361452</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395917</v>
+        <v>78.08662299395937</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523046</v>
+        <v>66.81659585230477</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437597</v>
+        <v>46.26034759437609</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400327</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263674</v>
+        <v>9.6277370902637</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515879</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084097</v>
+        <v>0.03013376241084105</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302151</v>
+        <v>92.58102251302178</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277581</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592414</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245398</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249175</v>
+        <v>427.6909102249181</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222144</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742024</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564208</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.68704285713129</v>
+        <v>83.68704285713287</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.3647177202355</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527165</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904532</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>408.0500980705782</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>310.3213621979889</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>154.2115424132114</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920832</v>
+        <v>41.91542210920849</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047985</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368625</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.6724428228431</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719809</v>
+        <v>64.09515511719826</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35020,19 +35020,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>365.2844632307146</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
         <v>93.75277736316451</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>456.4342306666093</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>837.964142581142</v>
+        <v>837.9641425811443</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509644</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>810.0737993329953</v>
+        <v>810.0737993329934</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>597.7588086730905</v>
+        <v>597.7588086730896</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>597.5775642778426</v>
+        <v>597.5775642778399</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
